--- a/CG - Homework 1 - WebGL Neighborhood - Evaluation form.xlsx
+++ b/CG - Homework 1 - WebGL Neighborhood - Evaluation form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diana van der Schouw\Documents\Diana\Windesheim\Jaar 4\GP_CG\CG - Homework 1 - Diana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA7DF8B-F268-4432-89D7-5C5595AF89DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51B8E41-9397-4B6E-8A73-2D91B3D0A116}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>Knock-out criteria</t>
   </si>
@@ -156,13 +156,31 @@
     <t>Eltjo Voorhoeve</t>
   </si>
   <si>
-    <t>My partner for this assignment was Erik Vredeveld. We agreed to split up for this assignment due to differences in knowledge and discussed this with Tijn Witsenburg.</t>
-  </si>
-  <si>
     <t>Cloudy sky</t>
   </si>
   <si>
-    <t xml:space="preserve">House, tree, </t>
+    <t>Grass, bricks, roof tiles</t>
+  </si>
+  <si>
+    <t>first person perspective, can fly, can look around</t>
+  </si>
+  <si>
+    <t>Box, cylinder, sphere, tetrahedron</t>
+  </si>
+  <si>
+    <t>House, tree, lantarn, snow, car, mailbox</t>
+  </si>
+  <si>
+    <t>car, mailbox</t>
+  </si>
+  <si>
+    <t>trees, snow</t>
+  </si>
+  <si>
+    <t>Shading, normal map (road), emissive (lantarn), bumpmap (lantern/trees), color</t>
+  </si>
+  <si>
+    <t>My partner for this excercise was Erik Vredeveld. We agreed to split up for this assignment due to different levels of knowledge. We discussed this with Tijn Witsenburg.</t>
   </si>
 </sst>
 </file>
@@ -1014,8 +1032,8 @@
   </sheetPr>
   <dimension ref="B2:J36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,7 +1170,7 @@
       </c>
       <c r="F17" s="22"/>
       <c r="H17" s="23" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -1178,7 +1196,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="8"/>
       <c r="H20" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -1187,7 +1205,9 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="9"/>
-      <c r="H21" s="17"/>
+      <c r="H21" s="17" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
@@ -1195,15 +1215,19 @@
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="9"/>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H22" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="9"/>
-      <c r="H23" s="17"/>
+      <c r="H23" s="17" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
@@ -1211,7 +1235,9 @@
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="9"/>
-      <c r="H24" s="17"/>
+      <c r="H24" s="17" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
@@ -1220,7 +1246,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="9"/>
       <c r="H25" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -1229,15 +1255,19 @@
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="9"/>
-      <c r="H26" s="17"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="10"/>
-      <c r="H27" s="18"/>
+      <c r="H27" s="18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="28" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="11"/>
@@ -1331,6 +1361,32 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <SharedWithUsers xmlns="7178be8b-d0ef-4995-97d9-396f4bad9a56">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="0c2036bf52fce6a572da55f07fac53b0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="46a6dac1cb1c034944cf78d34111dc32" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1570,48 +1626,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <SharedWithUsers xmlns="7178be8b-d0ef-4995-97d9-396f4bad9a56">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AE383F4-3C5F-4177-A300-408FED8DDE00}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95702B07-5163-4733-93F0-15C1454EB37E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1635,9 +1653,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95702B07-5163-4733-93F0-15C1454EB37E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AE383F4-3C5F-4177-A300-408FED8DDE00}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>